--- a/category search and sign up.xlsx
+++ b/category search and sign up.xlsx
@@ -10,14 +10,13 @@
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="TEST CASE TEMPLATE" sheetId="2" r:id="rId2"/>
     <sheet name="table2" sheetId="3" r:id="rId3"/>
-    <sheet name="Table-3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -199,36 +198,12 @@
     <t>7. click on continue</t>
   </si>
   <si>
-    <t>Ref:Table-2</t>
-  </si>
-  <si>
     <t>T Mamatha</t>
   </si>
   <si>
     <t xml:space="preserve"> " Registration Successful"</t>
   </si>
   <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Re-enter Password</t>
-  </si>
-  <si>
-    <t>mamatha@gmail.com</t>
-  </si>
-  <si>
-    <t>mamath123</t>
-  </si>
-  <si>
-    <t>123@gmail.com</t>
-  </si>
-  <si>
-    <t>344dgfgfh</t>
-  </si>
-  <si>
     <t>4. Enter email ID</t>
   </si>
   <si>
@@ -403,14 +378,14 @@
     <t>womens fashion should be selected and items related displayed</t>
   </si>
   <si>
-    <t>Table 3</t>
+    <t>Ref:Table-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,14 +437,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -590,7 +557,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,7 +576,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,6 +588,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,11 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,19 +1148,19 @@
       <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="25" t="s">
         <v>53</v>
       </c>
       <c r="K3" s="1"/>
@@ -1198,11 +1173,11 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="21"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
@@ -1214,10 +1189,10 @@
         <v>43</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="30.75">
@@ -1269,19 +1244,19 @@
         <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>72</v>
+      <c r="H8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1291,15 +1266,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
@@ -1310,11 +1285,11 @@
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
@@ -1325,11 +1300,11 @@
       <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
@@ -1341,10 +1316,10 @@
         <v>59</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
@@ -1428,9 +1403,11 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F3:F4" r:id="rId3" display="Ref table-2"/>
+    <hyperlink ref="F9:F11" r:id="rId4" display="Ref:Table-3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1438,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
@@ -1450,321 +1427,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="34.5">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="34.5">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="34.5">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="29"/>
+      <c r="B12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29"/>
+      <c r="B13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="29"/>
+      <c r="B14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
-      <c r="B10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="29"/>
+      <c r="B15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="29"/>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="29"/>
+      <c r="B17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="23" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="29"/>
+      <c r="B18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="23" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="29"/>
+      <c r="B19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="29"/>
+      <c r="B20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="23" t="s">
+      <c r="C20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29"/>
+      <c r="B21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="29"/>
+      <c r="B22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="23" t="s">
+      <c r="C22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29"/>
+      <c r="B23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="29"/>
+      <c r="B24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="23" t="s">
+      <c r="C24" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29"/>
+      <c r="B25" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C25" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="29"/>
+      <c r="B26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="23" t="s">
+      <c r="C26" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="29"/>
+      <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="23" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="29"/>
+      <c r="B28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="23" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="29"/>
+      <c r="B29" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="23" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="29"/>
+      <c r="B30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C30" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="27"/>
-      <c r="B28" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="27"/>
-      <c r="B29" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1774,102 +1751,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>